--- a/任务及绩效评价/SE2019春-G11-第八周任务以及绩效评价.xlsx
+++ b/任务及绩效评价/SE2019春-G11-第八周任务以及绩效评价.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
-    <sheet name="第六周任务清单" sheetId="4" r:id="rId1"/>
+    <sheet name="任务清单" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="17">
   <si>
     <t>绩效评价</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>第八周任务清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSP读书笔记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,14 +180,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,7 +506,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F3" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -515,12 +519,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
@@ -555,7 +559,7 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>0.65</v>
       </c>
     </row>
@@ -572,7 +576,7 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
@@ -587,13 +591,25 @@
       <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="7"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -611,7 +627,7 @@
       <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>0.5</v>
       </c>
     </row>
@@ -628,13 +644,25 @@
       <c r="E10" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="7"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -652,7 +680,7 @@
       <c r="E14" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="7">
         <v>0.76</v>
       </c>
     </row>
@@ -670,7 +698,7 @@
       <c r="E15" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
@@ -686,20 +714,32 @@
       <c r="E16" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="7"/>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F14:F17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
